--- a/doc/引擎计划.xlsx
+++ b/doc/引擎计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>职业目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>webgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +687,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -733,7 +737,9 @@
         <v>24</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,7 +806,9 @@
         <v>18</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/doc/引擎计划.xlsx
+++ b/doc/引擎计划.xlsx
@@ -4,46 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="大纲" sheetId="1" r:id="rId1"/>
-    <sheet name="引擎计划" sheetId="2" r:id="rId2"/>
+    <sheet name="引擎计划" sheetId="2" r:id="rId1"/>
+    <sheet name="热更新" sheetId="3" r:id="rId2"/>
+    <sheet name="存盘系统" sheetId="4" r:id="rId3"/>
+    <sheet name="属性系统" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
-  <si>
-    <t>职业目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要进攻服务端，空余时间制作客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以python为脚本语言，网络库采用C/C++实现，或者借用python第三方库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unity3d为主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>网络库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,22 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2014年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写一篇技术文章，整理出制作服务端引擎框架的各个细节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结合自己擅长的语言和工作中用到的语言，进行项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缓存层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详细设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续完善wafer：https://m2.svnspot.com/leecrest.server/wafer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端网页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +132,100 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标：热更新</t>
+  </si>
+  <si>
+    <t>语言环境：python</t>
+  </si>
+  <si>
+    <t>系统API：__import__, reload（貌似不可行）</t>
+  </si>
+  <si>
+    <t>1)import</t>
+  </si>
+  <si>
+    <t>导入成功后，模块名会记入sys.modules中</t>
+  </si>
+  <si>
+    <t>需要解决的问题：</t>
+  </si>
+  <si>
+    <t>1、更新的文件在本次更新之前并没有加载过</t>
+  </si>
+  <si>
+    <t>2、更新类、函数及衍生对象：class、function、method、classmethod、staticmethod</t>
+  </si>
+  <si>
+    <t>3、不更新除了（2）中的其他类型对象</t>
+  </si>
+  <si>
+    <t>4、更新所有对模块顶层变量的引用</t>
+  </si>
+  <si>
+    <t>5、当出现较大框架性变动时，不推荐热更新。比如向基类中添加成员函数</t>
+  </si>
+  <si>
+    <t>测试案例：在更新中</t>
+  </si>
+  <si>
+    <t>1、新增变量、函数、class</t>
+  </si>
+  <si>
+    <t>1）直接用reload，新增的都没有问题</t>
+  </si>
+  <si>
+    <t>2、删除变量、函数、class</t>
+  </si>
+  <si>
+    <t>实践证明，删除的对象在重载后仍然存在，无法识别出来。</t>
+  </si>
+  <si>
+    <t>所以，暂时没有办法将需要删除的对象释放掉，而且如果释放了，也会引起其他问题。暂时不处理</t>
+  </si>
+  <si>
+    <t>3、class新增或者修改method、staticmethod、classmethod</t>
+  </si>
+  <si>
+    <t>热更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存盘系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不直接存数据库，所有数据存储访问redis进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +334,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +345,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,76 +647,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -683,161 +835,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/引擎计划.xlsx
+++ b/doc/引擎计划.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="引擎计划" sheetId="2" r:id="rId1"/>
     <sheet name="热更新" sheetId="3" r:id="rId2"/>
     <sheet name="存盘系统" sheetId="4" r:id="rId3"/>
-    <sheet name="属性系统" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>网络库</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +225,10 @@
   </si>
   <si>
     <t>eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要存盘的数据，直接写入redis，不需要再内存中额外申请空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,20 +652,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.125" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -676,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -688,7 +691,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -700,7 +703,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -712,7 +715,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -724,7 +727,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -738,7 +741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -752,7 +755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -764,7 +767,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -776,7 +779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -786,7 +789,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -796,7 +799,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
@@ -806,7 +809,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -816,7 +819,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>55</v>
       </c>
@@ -841,94 +844,94 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -943,21 +946,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -965,28 +968,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>